--- a/HW3/q5_complexities.xlsx
+++ b/HW3/q5_complexities.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krkusuk\repos\UW_Algorithms\HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54180FE5-9697-444F-AA92-FF3AEB70030B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CC612-A9C7-4811-B8C0-AF72E3A3815A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11950" yWindow="4330" windowWidth="28800" windowHeight="15460" xr2:uid="{6F67C431-4B5D-4ED1-A7A0-E17B2B81DC38}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" activeTab="1" xr2:uid="{6F67C431-4B5D-4ED1-A7A0-E17B2B81DC38}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="q5" sheetId="1" r:id="rId1"/>
+    <sheet name="q6" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>time_ms</t>
   </si>
@@ -70,16 +71,39 @@
   </si>
   <si>
     <t>tim/nlogn^2</t>
+  </si>
+  <si>
+    <t>time_s</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,12 +444,30 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="525" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3ED88049-DA94-478A-BD00-24EBC01973C5}">
+  <we:reference id="db18cc72-1a17-45df-b60e-7ffb655e8af5" version="1.0.0.0" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7197248B-6486-4527-8A38-B0BEE8A941E5}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="A10:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,310 +484,755 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>500</v>
-      </c>
-      <c r="B2">
-        <v>6000.25</v>
-      </c>
-      <c r="C2">
-        <v>7.9359999999999999</v>
-      </c>
-      <c r="D2">
-        <v>64.334000000000003</v>
-      </c>
-      <c r="E2">
-        <v>1.768783</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G6" si="0">A2*A2</f>
-        <v>250000</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H6" si="1">LN(A2)</f>
-        <v>6.2146080984221914</v>
-      </c>
-      <c r="J2">
-        <f>C2/H2</f>
-        <v>1.2769912236324037</v>
-      </c>
-      <c r="K2">
-        <f>D2/A2</f>
-        <v>0.128668</v>
-      </c>
-      <c r="L2">
-        <f>B2/G2</f>
-        <v>2.4001000000000001E-2</v>
-      </c>
-      <c r="M2">
-        <f>B2/(A2*H2)</f>
-        <v>1.9310147655242769</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N6" si="2">B2/(A2*H2*H2)</f>
-        <v>0.31072188864403794</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>6000.25</v>
+      </c>
+      <c r="C3">
+        <v>7.9359999999999999</v>
+      </c>
+      <c r="D3">
+        <v>64.334000000000003</v>
+      </c>
+      <c r="E3">
+        <v>1.768783</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0">A3*A3</f>
+        <v>250000</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="1">LN(A3)</f>
+        <v>6.2146080984221914</v>
+      </c>
+      <c r="J3">
+        <f>C3/H3</f>
+        <v>1.2769912236324037</v>
+      </c>
+      <c r="K3">
+        <f>D3/A3</f>
+        <v>0.128668</v>
+      </c>
+      <c r="L3">
+        <f>B3/G3</f>
+        <v>2.4001000000000001E-2</v>
+      </c>
+      <c r="M3">
+        <f>B3/(A3*H3)</f>
+        <v>1.9310147655242769</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N7" si="2">B3/(A3*H3*H3)</f>
+        <v>0.31072188864403794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1000</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>17031.25</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>9.4209999999999994</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>105.524</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>2.2775889999999999</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>6.9077552789821368</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J6" si="3">C3/H3</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J7" si="3">C4/H4</f>
         <v>1.3638294380035119</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K6" si="4">D3/A3</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K7" si="4">D4/A4</f>
         <v>0.10552400000000001</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L6" si="5">B3/G3</f>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="5">B4/G4</f>
         <v>1.7031250000000001E-2</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M6" si="6">B3/(A3*H3)</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M7" si="6">B4/(A4*H4)</f>
         <v>2.4655259649715862</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <f t="shared" si="2"/>
         <v>0.35692144052545</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2000</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>44999</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>8.4954999999999998</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>239.4845</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>2.7536130000000001</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>7.6009024595420822</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <f t="shared" si="3"/>
         <v>1.1176962268914332</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <f t="shared" si="4"/>
         <v>0.11974224999999999</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <f t="shared" si="5"/>
         <v>1.1249749999999999E-2</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <f t="shared" si="6"/>
         <v>2.9601090291264551</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <f t="shared" si="2"/>
         <v>0.38944178600928758</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>3000</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>58276.5</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>8.3986669999999997</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>362.255</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>2.2650030000000001</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>9000000</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>8.0063675676502459</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <f t="shared" si="3"/>
         <v>1.0489984289423384</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <f t="shared" si="4"/>
         <v>0.12075166666666666</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <f t="shared" si="5"/>
         <v>6.4751666666666664E-3</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <f t="shared" si="6"/>
         <v>2.4262563310843728</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>0.30304083725654435</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>181921.75</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>9.5853999999999999</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>519.98379999999997</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>4.0039150000000001</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>25000000</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>8.5171931914162382</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <f t="shared" si="3"/>
         <v>1.125417703294592</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <f t="shared" si="4"/>
         <v>0.10399675999999999</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <f t="shared" si="5"/>
         <v>7.2768700000000004E-3</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <f t="shared" si="6"/>
         <v>4.271870930046382</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <f t="shared" si="2"/>
         <v>0.50155853390194793</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>8000</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>270089.5</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>7.6416250000000003</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1026.2355</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>3.5325410000000002</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7" si="7">A7*A7</f>
+      <c r="G8">
+        <f t="shared" ref="G8" si="7">A8*A8</f>
         <v>64000000</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7" si="8">LN(A7)</f>
+      <c r="H8">
+        <f t="shared" ref="H8" si="8">LN(A8)</f>
         <v>8.987196820661973</v>
       </c>
-      <c r="J7">
-        <f>C7/H7</f>
+      <c r="J8">
+        <f>C8/H8</f>
         <v>0.85027903054616072</v>
       </c>
-      <c r="K7">
-        <f>D7/A7</f>
+      <c r="K8">
+        <f>D8/A8</f>
         <v>0.12827943750000001</v>
       </c>
-      <c r="L7">
-        <f>B7/G7</f>
+      <c r="L8">
+        <f>B8/G8</f>
         <v>4.2201484374999997E-3</v>
       </c>
-      <c r="M7">
-        <f>B7/(A7*H7)</f>
+      <c r="M8">
+        <f>B8/(A8*H8)</f>
         <v>3.756587084237601</v>
       </c>
-      <c r="N7">
-        <f>B7/(A7*H7*H7)</f>
+      <c r="N8">
+        <f>B8/(A8*H8*H8)</f>
         <v>0.41799319178156163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>4.3645999999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>7.0262000000000002</v>
+      </c>
+      <c r="D12">
+        <v>861.77639999999997</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:G14" si="9">A12*A12</f>
+        <v>1000000</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H14" si="10">LN(A12)</f>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J14" si="11">C12/H12</f>
+        <v>1.0171466295828762</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K14" si="12">D12/A12</f>
+        <v>0.8617764</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L14" si="13">B12/G12</f>
+        <v>4.3645999999999999E-8</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:M14" si="14">B12/(A12*H12)</f>
+        <v>6.3184056523831097E-6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N14" si="15">B12/(A12*H12*H12)</f>
+        <v>9.1468290308543347E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>0.60248000000000002</v>
+      </c>
+      <c r="C13">
+        <v>11.491619999999999</v>
+      </c>
+      <c r="D13">
+        <v>9087.7552799999994</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="9"/>
+        <v>100000000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="10"/>
+        <v>9.2103403719761836</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="11"/>
+        <v>1.2476867885322616</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>0.90877552799999994</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="13"/>
+        <v>6.0248000000000001E-9</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="14"/>
+        <v>6.5413434864267792E-6</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="15"/>
+        <v>7.102173450972321E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>14.337444</v>
+      </c>
+      <c r="C14">
+        <v>11.838222</v>
+      </c>
+      <c r="D14">
+        <v>91496.482170000003</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>10000000000</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="10"/>
+        <v>11.512925464970229</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="11"/>
+        <v>1.0282548980291355</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="12"/>
+        <v>0.91496482170000004</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="13"/>
+        <v>1.4337444E-9</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="14"/>
+        <v>1.2453345627593771E-5</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="15"/>
+        <v>1.0816838574595926E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1000000</v>
+      </c>
+      <c r="B15">
+        <v>267.12608899999998</v>
+      </c>
+      <c r="C15">
+        <v>14.845793</v>
+      </c>
+      <c r="D15">
+        <v>932650.559885</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15" si="16">A15*A15</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15" si="17">LN(A15)</f>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ref="J15" si="18">C15/H15</f>
+        <v>1.0745743298963206</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15" si="19">D15/A15</f>
+        <v>0.93265055988500001</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15" si="20">B15/G15</f>
+        <v>2.67126089E-10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15" si="21">B15/(A15*H15)</f>
+        <v>1.933523107084949E-5</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="22">B15/(A15*H15*H15)</f>
+        <v>1.3995306933990395E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7941147-756B-4667-95F1-11ACA6AD6497}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>4.3645999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.0262000000000002</v>
+      </c>
+      <c r="D3">
+        <v>861.77639999999997</v>
+      </c>
+      <c r="F3">
+        <f>A3*A3</f>
+        <v>1000000</v>
+      </c>
+      <c r="G3">
+        <f>LN(A3)</f>
+        <v>6.9077552789821368</v>
+      </c>
+      <c r="I3" s="1">
+        <f>C3/G3</f>
+        <v>1.0171466295828762</v>
+      </c>
+      <c r="J3" s="1">
+        <f>D3/A3</f>
+        <v>0.8617764</v>
+      </c>
+      <c r="K3">
+        <f>B3/F3</f>
+        <v>4.3645999999999999E-8</v>
+      </c>
+      <c r="L3" s="1">
+        <f>B3/(A3*G3)</f>
+        <v>6.3184056523831097E-6</v>
+      </c>
+      <c r="M3">
+        <f>B3/(A3*G3*G3)</f>
+        <v>9.1468290308543347E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10000</v>
+      </c>
+      <c r="B4">
+        <v>0.60248000000000002</v>
+      </c>
+      <c r="C4">
+        <v>11.491619999999999</v>
+      </c>
+      <c r="D4">
+        <v>9087.7552799999994</v>
+      </c>
+      <c r="F4">
+        <f>A4*A4</f>
+        <v>100000000</v>
+      </c>
+      <c r="G4">
+        <f>LN(A4)</f>
+        <v>9.2103403719761836</v>
+      </c>
+      <c r="I4" s="1">
+        <f>C4/G4</f>
+        <v>1.2476867885322616</v>
+      </c>
+      <c r="J4" s="1">
+        <f>D4/A4</f>
+        <v>0.90877552799999994</v>
+      </c>
+      <c r="K4">
+        <f>B4/F4</f>
+        <v>6.0248000000000001E-9</v>
+      </c>
+      <c r="L4" s="1">
+        <f>B4/(A4*G4)</f>
+        <v>6.5413434864267792E-6</v>
+      </c>
+      <c r="M4">
+        <f>B4/(A4*G4*G4)</f>
+        <v>7.102173450972321E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>100000</v>
+      </c>
+      <c r="B5">
+        <v>14.337444</v>
+      </c>
+      <c r="C5">
+        <v>11.838222</v>
+      </c>
+      <c r="D5">
+        <v>91496.482170000003</v>
+      </c>
+      <c r="F5">
+        <f>A5*A5</f>
+        <v>10000000000</v>
+      </c>
+      <c r="G5">
+        <f>LN(A5)</f>
+        <v>11.512925464970229</v>
+      </c>
+      <c r="I5" s="1">
+        <f>C5/G5</f>
+        <v>1.0282548980291355</v>
+      </c>
+      <c r="J5" s="1">
+        <f>D5/A5</f>
+        <v>0.91496482170000004</v>
+      </c>
+      <c r="K5">
+        <f>B5/F5</f>
+        <v>1.4337444E-9</v>
+      </c>
+      <c r="L5" s="1">
+        <f>B5/(A5*G5)</f>
+        <v>1.2453345627593771E-5</v>
+      </c>
+      <c r="M5">
+        <f>B5/(A5*G5*G5)</f>
+        <v>1.0816838574595926E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1000000</v>
+      </c>
+      <c r="B6">
+        <v>267.12608899999998</v>
+      </c>
+      <c r="C6">
+        <v>14.845793</v>
+      </c>
+      <c r="D6">
+        <v>932650.559885</v>
+      </c>
+      <c r="F6">
+        <f>A6*A6</f>
+        <v>1000000000000</v>
+      </c>
+      <c r="G6">
+        <f>LN(A6)</f>
+        <v>13.815510557964274</v>
+      </c>
+      <c r="I6" s="1">
+        <f>C6/G6</f>
+        <v>1.0745743298963206</v>
+      </c>
+      <c r="J6" s="1">
+        <f>D6/A6</f>
+        <v>0.93265055988500001</v>
+      </c>
+      <c r="K6">
+        <f>B6/F6</f>
+        <v>2.67126089E-10</v>
+      </c>
+      <c r="L6" s="1">
+        <f>B6/(A6*G6)</f>
+        <v>1.933523107084949E-5</v>
+      </c>
+      <c r="M6">
+        <f>B6/(A6*G6*G6)</f>
+        <v>1.3995306933990395E-6</v>
       </c>
     </row>
   </sheetData>

--- a/HW3/q5_complexities.xlsx
+++ b/HW3/q5_complexities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krkusuk\repos\UW_Algorithms\HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62CC612-A9C7-4811-B8C0-AF72E3A3815A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93656689-438F-4BA5-9EB3-39F71DA00E19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" activeTab="1" xr2:uid="{6F67C431-4B5D-4ED1-A7A0-E17B2B81DC38}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{6F67C431-4B5D-4ED1-A7A0-E17B2B81DC38}"/>
   </bookViews>
   <sheets>
     <sheet name="q5" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>time_ms</t>
   </si>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7197248B-6486-4527-8A38-B0BEE8A941E5}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="A10:N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,214 +795,6 @@
         <v>0.41799319178156163</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>4.3645999999999997E-2</v>
-      </c>
-      <c r="C12">
-        <v>7.0262000000000002</v>
-      </c>
-      <c r="D12">
-        <v>861.77639999999997</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G14" si="9">A12*A12</f>
-        <v>1000000</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H14" si="10">LN(A12)</f>
-        <v>6.9077552789821368</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J14" si="11">C12/H12</f>
-        <v>1.0171466295828762</v>
-      </c>
-      <c r="K12">
-        <f t="shared" ref="K12:K14" si="12">D12/A12</f>
-        <v>0.8617764</v>
-      </c>
-      <c r="L12">
-        <f t="shared" ref="L12:L14" si="13">B12/G12</f>
-        <v>4.3645999999999999E-8</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ref="M12:M14" si="14">B12/(A12*H12)</f>
-        <v>6.3184056523831097E-6</v>
-      </c>
-      <c r="N12">
-        <f t="shared" ref="N12:N14" si="15">B12/(A12*H12*H12)</f>
-        <v>9.1468290308543347E-7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>10000</v>
-      </c>
-      <c r="B13">
-        <v>0.60248000000000002</v>
-      </c>
-      <c r="C13">
-        <v>11.491619999999999</v>
-      </c>
-      <c r="D13">
-        <v>9087.7552799999994</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="9"/>
-        <v>100000000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="10"/>
-        <v>9.2103403719761836</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="11"/>
-        <v>1.2476867885322616</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="12"/>
-        <v>0.90877552799999994</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="13"/>
-        <v>6.0248000000000001E-9</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="14"/>
-        <v>6.5413434864267792E-6</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="15"/>
-        <v>7.102173450972321E-7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>100000</v>
-      </c>
-      <c r="B14">
-        <v>14.337444</v>
-      </c>
-      <c r="C14">
-        <v>11.838222</v>
-      </c>
-      <c r="D14">
-        <v>91496.482170000003</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="9"/>
-        <v>10000000000</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="10"/>
-        <v>11.512925464970229</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="11"/>
-        <v>1.0282548980291355</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="12"/>
-        <v>0.91496482170000004</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="13"/>
-        <v>1.4337444E-9</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="14"/>
-        <v>1.2453345627593771E-5</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="15"/>
-        <v>1.0816838574595926E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1000000</v>
-      </c>
-      <c r="B15">
-        <v>267.12608899999998</v>
-      </c>
-      <c r="C15">
-        <v>14.845793</v>
-      </c>
-      <c r="D15">
-        <v>932650.559885</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15" si="16">A15*A15</f>
-        <v>1000000000000</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15" si="17">LN(A15)</f>
-        <v>13.815510557964274</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ref="J15" si="18">C15/H15</f>
-        <v>1.0745743298963206</v>
-      </c>
-      <c r="K15">
-        <f t="shared" ref="K15" si="19">D15/A15</f>
-        <v>0.93265055988500001</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ref="L15" si="20">B15/G15</f>
-        <v>2.67126089E-10</v>
-      </c>
-      <c r="M15">
-        <f t="shared" ref="M15" si="21">B15/(A15*H15)</f>
-        <v>1.933523107084949E-5</v>
-      </c>
-      <c r="N15">
-        <f t="shared" ref="N15" si="22">B15/(A15*H15*H15)</f>
-        <v>1.3995306933990395E-6</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1014,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7941147-756B-4667-95F1-11ACA6AD6497}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
